--- a/Data/Jari-Pekka_Halonen_MM-Kisaveikkaus_2022.xlsx
+++ b/Data/Jari-Pekka_Halonen_MM-Kisaveikkaus_2022.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentina</t>
+    <t xml:space="preserve">Argentinau</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -633,10 +633,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.57"/>
@@ -8760,7 +8760,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.71"/>
   </cols>
@@ -9787,7 +9787,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.71"/>
   </cols>

--- a/Data/Jari-Pekka_Halonen_MM-Kisaveikkaus_2022.xlsx
+++ b/Data/Jari-Pekka_Halonen_MM-Kisaveikkaus_2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="84">
   <si>
     <t xml:space="preserve">MM-KISAVEIKKAUS 2022</t>
   </si>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentinau</t>
+    <t xml:space="preserve">Argentiina</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Callum Wilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentiina</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -633,10 +630,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="R6" activeCellId="0" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.57"/>
@@ -961,7 +958,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -975,19 +972,19 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="17" t="n">
         <v>3</v>
@@ -1000,10 +997,10 @@
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -1023,19 +1020,19 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="17" t="n">
         <v>2</v>
@@ -1067,19 +1064,19 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>44887</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="17" t="n">
         <v>2</v>
@@ -1111,10 +1108,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -1123,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="17" t="n">
         <v>3</v>
@@ -1155,19 +1152,19 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>44888</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="17" t="n">
         <v>1</v>
@@ -1199,7 +1196,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="15" t="n">
         <v>44888</v>
@@ -1211,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="17" t="n">
         <v>3</v>
@@ -1243,19 +1240,19 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>44888</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="17" t="n">
         <v>2</v>
@@ -1287,19 +1284,19 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15" t="n">
         <v>44888</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="17" t="n">
         <v>2</v>
@@ -1331,19 +1328,19 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>44889</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="17" t="n">
         <v>1</v>
@@ -1375,19 +1372,19 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15" t="n">
         <v>44889</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="17" t="n">
         <v>2</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>44889</v>
@@ -1431,7 +1428,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="17" t="n">
         <v>3</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="15" t="n">
         <v>44889</v>
@@ -1475,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="17" t="n">
         <v>3</v>
@@ -1683,19 +1680,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>44891</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="17" t="n">
         <v>1</v>
@@ -1727,19 +1724,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="15" t="n">
         <v>44891</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="17" t="n">
         <v>2</v>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>44891</v>
@@ -1783,7 +1780,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="17" t="n">
         <v>2</v>
@@ -1815,19 +1812,19 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="15" t="n">
         <v>44891</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="17" t="n">
         <v>2</v>
@@ -1859,19 +1856,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>44892</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="17" t="n">
         <v>1</v>
@@ -1903,19 +1900,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>44892</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="17" t="n">
         <v>2</v>
@@ -1947,19 +1944,19 @@
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="15" t="n">
         <v>44892</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="17" t="n">
         <v>2</v>
@@ -1991,13 +1988,13 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>44892</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>17</v>
@@ -2035,19 +2032,19 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>44893</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="17" t="n">
         <v>1</v>
@@ -2079,19 +2076,19 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="15" t="n">
         <v>44893</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="17" t="n">
         <v>1</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="15" t="n">
         <v>44893</v>
@@ -2135,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="17" t="n">
         <v>2</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="15" t="n">
         <v>44893</v>
@@ -2179,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="17" t="n">
         <v>2</v>
@@ -2387,13 +2384,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>44895</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>17</v>
@@ -2431,19 +2428,19 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15" t="n">
         <v>44895</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="17" t="n">
         <v>1</v>
@@ -2475,19 +2472,19 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>44895</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F44" s="17" t="n">
         <v>1</v>
@@ -2519,19 +2516,19 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="15" t="n">
         <v>44895</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="17" t="n">
         <v>1</v>
@@ -2563,19 +2560,19 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="15" t="n">
         <v>44896</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="17" t="n">
         <v>2</v>
@@ -2607,19 +2604,19 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="15" t="n">
         <v>44896</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="17" t="n">
         <v>1</v>
@@ -2651,19 +2648,19 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="15" t="n">
         <v>44896</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="17" t="n">
         <v>1</v>
@@ -2695,13 +2692,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="15" t="n">
         <v>44896</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>17</v>
@@ -2739,13 +2736,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="15" t="n">
         <v>44897</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>17</v>
@@ -2783,19 +2780,19 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="15" t="n">
         <v>44897</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="17" t="n">
         <v>1</v>
@@ -2827,19 +2824,19 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="15" t="n">
         <v>44897</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="17" t="n">
         <v>1</v>
@@ -2871,13 +2868,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="15" t="n">
         <v>44897</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>17</v>
@@ -2936,11 +2933,11 @@
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -2971,7 +2968,7 @@
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
       <c r="C60" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="3"/>
     </row>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="21"/>
@@ -3004,7 +3001,7 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="28"/>
       <c r="D64" s="3"/>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="28"/>
       <c r="D65" s="3"/>
@@ -3023,7 +3020,7 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="28"/>
       <c r="D66" s="3"/>
@@ -3041,7 +3038,7 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="28"/>
       <c r="D68" s="3"/>
@@ -3050,7 +3047,7 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="28"/>
       <c r="D69" s="3"/>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="28"/>
       <c r="D70" s="3"/>
@@ -3068,7 +3065,7 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="28"/>
       <c r="D71" s="3"/>
@@ -3084,7 +3081,7 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="28"/>
       <c r="D73" s="3"/>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="28"/>
       <c r="D75" s="3"/>
@@ -3116,7 +3113,7 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="28"/>
       <c r="D77" s="3"/>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="28"/>
       <c r="D79" s="3"/>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="28"/>
       <c r="D81" s="3"/>
@@ -3158,7 +3155,7 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="29"/>
       <c r="D82" s="3"/>
@@ -3171,12 +3168,12 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="30"/>
       <c r="D84" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" s="30"/>
       <c r="G84" s="3"/>
@@ -3194,7 +3191,7 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1"/>
       <c r="D86" s="3"/>
@@ -8760,7 +8757,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.71"/>
   </cols>
@@ -9787,7 +9784,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.71"/>
   </cols>
